--- a/src/frontend/static/assets/template.xlsx
+++ b/src/frontend/static/assets/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DANIIL\PycharmProjects\crm-backend\src\frontend\static\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DANIIL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0B7C0A-6BF6-460E-92E3-8BCE4FBFE5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A6A162-5B6C-4085-9312-A74B0EB1E6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="37200" windowHeight="19520" xr2:uid="{68691404-19D1-4706-9885-F95B95F965E0}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="37200" windowHeight="19530" xr2:uid="{68691404-19D1-4706-9885-F95B95F965E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Текст</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>Подобрать аккаунт под размер? (1 или 0)</t>
+  </si>
+  <si>
+    <t>Достоинства</t>
+  </si>
+  <si>
+    <t>Недостатки</t>
   </si>
 </sst>
 </file>
@@ -641,110 +647,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F48DDD3-F7AE-4554-BD0D-C18DC4B66F33}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.08984375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="37.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" customWidth="1"/>
-    <col min="12" max="12" width="86.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="47.08984375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="37.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" customWidth="1"/>
+    <col min="14" max="14" width="86.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="11" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="10"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="G2" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="21"/>
       <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="G3" s="19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="21"/>
       <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24"/>
       <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:6" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="27">
         <v>11111111111</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="27">
+      <c r="F6" s="27">
         <v>1</v>
       </c>
-      <c r="E6" s="27">
+      <c r="G6" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
